--- a/demo.xlsx
+++ b/demo.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,45 +12,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>hrithik</t>
-  </si>
-  <si>
-    <t>Rohan</t>
-  </si>
-  <si>
-    <t>Rameshwar</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Crops</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Jowar</t>
+  </si>
+  <si>
+    <t>Bajra</t>
+  </si>
+  <si>
+    <t>Grapes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="hh:mm"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -65,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -75,12 +90,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -90,6 +99,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -301,44 +314,143 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>38445.0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.17708333333333334</v>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>38446.0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.21875</v>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>150.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>38447.0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.2604166666666667</v>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
